--- a/Promotion_data.xlsx
+++ b/Promotion_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13693\Documents\MyApp\webapp_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B0BD21-0FE2-44CC-9535-29D802B2A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175965A-2FFA-432D-A9F6-562663CF40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shampoo - Sales Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Shampoo Sales_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shampoo - Sales Data'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shampoo Sales_Data'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/Promotion_data.xlsx
+++ b/Promotion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13693\Documents\MyApp\webapp_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB17394D-80F7-43D8-918F-463CE79AB696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F28CF-75BD-45A8-8DA3-6A48FA6E84DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,6 +126,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -489,10 +491,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>2021</v>
       </c>
       <c r="C2">
@@ -525,10 +527,10 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>2021</v>
       </c>
       <c r="C3">
@@ -561,10 +563,10 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
         <v>2021</v>
       </c>
       <c r="C4">
@@ -597,10 +599,10 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
         <v>2021</v>
       </c>
       <c r="C5">
@@ -633,10 +635,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>2021</v>
       </c>
       <c r="C6">
@@ -669,10 +671,10 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>2021</v>
       </c>
       <c r="C7">
@@ -705,10 +707,10 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>2021</v>
       </c>
       <c r="C8">
@@ -741,10 +743,10 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>2021</v>
       </c>
       <c r="C9">
@@ -777,10 +779,10 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <v>2021</v>
       </c>
       <c r="C10">
@@ -813,10 +815,10 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>2021</v>
       </c>
       <c r="C11">
@@ -849,10 +851,10 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>2021</v>
       </c>
       <c r="C12">
@@ -885,10 +887,10 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>2021</v>
       </c>
       <c r="C13">
@@ -921,10 +923,10 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>2021</v>
       </c>
       <c r="C14">
@@ -957,10 +959,10 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>2021</v>
       </c>
       <c r="C15">
@@ -993,10 +995,10 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>2021</v>
       </c>
       <c r="C16">
@@ -1029,10 +1031,10 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>2021</v>
       </c>
       <c r="C17">
@@ -1065,10 +1067,10 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>2021</v>
       </c>
       <c r="C18">
@@ -1101,10 +1103,10 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>2021</v>
       </c>
       <c r="C19">
@@ -1137,10 +1139,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>2021</v>
       </c>
       <c r="C20">
@@ -1173,10 +1175,10 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>2021</v>
       </c>
       <c r="C21">
@@ -1209,10 +1211,10 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>2021</v>
       </c>
       <c r="C22">
@@ -1245,10 +1247,10 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>2021</v>
       </c>
       <c r="C23">
@@ -1281,10 +1283,10 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>2021</v>
       </c>
       <c r="C24">
@@ -1317,10 +1319,10 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>2021</v>
       </c>
       <c r="C25">
@@ -1353,10 +1355,10 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>2021</v>
       </c>
       <c r="C26">
@@ -1389,10 +1391,10 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>2021</v>
       </c>
       <c r="C27">
@@ -1425,10 +1427,10 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>2021</v>
       </c>
       <c r="C28">
@@ -1461,10 +1463,10 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>2021</v>
       </c>
       <c r="C29">
@@ -1497,10 +1499,10 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>2021</v>
       </c>
       <c r="C30">
@@ -1533,10 +1535,10 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>2021</v>
       </c>
       <c r="C31">
@@ -1569,10 +1571,10 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>2021</v>
       </c>
       <c r="C32">
@@ -1605,10 +1607,10 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>2021</v>
       </c>
       <c r="C33">
@@ -1641,10 +1643,10 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>2021</v>
       </c>
       <c r="C34">
@@ -1677,10 +1679,10 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>2021</v>
       </c>
       <c r="C35">
@@ -1713,10 +1715,10 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>2021</v>
       </c>
       <c r="C36">
@@ -1749,10 +1751,10 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>2021</v>
       </c>
       <c r="C37">
@@ -1785,10 +1787,10 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>2021</v>
       </c>
       <c r="C38">
@@ -1821,10 +1823,10 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>2021</v>
       </c>
       <c r="C39">
@@ -1857,10 +1859,10 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>2021</v>
       </c>
       <c r="C40">
@@ -1893,10 +1895,10 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>2021</v>
       </c>
       <c r="C41">
@@ -1929,10 +1931,10 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>2021</v>
       </c>
       <c r="C42">
@@ -1965,10 +1967,10 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>2021</v>
       </c>
       <c r="C43">
@@ -2001,10 +2003,10 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>2021</v>
       </c>
       <c r="C44">
@@ -2037,10 +2039,10 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>2021</v>
       </c>
       <c r="C45">
@@ -2073,10 +2075,10 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>2021</v>
       </c>
       <c r="C46">
@@ -2109,10 +2111,10 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
       <c r="C47">
@@ -2145,10 +2147,10 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="7">
         <v>2021</v>
       </c>
       <c r="C48">
@@ -2181,10 +2183,10 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
       <c r="C49">
@@ -2217,10 +2219,10 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
       <c r="C50">
@@ -2253,10 +2255,10 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
       <c r="C51">
@@ -2289,10 +2291,10 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
       <c r="C52">
@@ -2325,10 +2327,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
       <c r="C53">
@@ -2361,10 +2363,10 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <v>2022</v>
       </c>
       <c r="C54">
@@ -2397,10 +2399,10 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="7">
         <v>2022</v>
       </c>
       <c r="C55">
@@ -2433,10 +2435,10 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="7">
         <v>2022</v>
       </c>
       <c r="C56">
@@ -2469,10 +2471,10 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="7">
         <v>2022</v>
       </c>
       <c r="C57">
@@ -2505,10 +2507,10 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="7">
         <v>2022</v>
       </c>
       <c r="C58">
@@ -2541,10 +2543,10 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="7">
         <v>2022</v>
       </c>
       <c r="C59">
@@ -2577,10 +2579,10 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="7">
         <v>2022</v>
       </c>
       <c r="C60">
@@ -2613,10 +2615,10 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="7">
         <v>2022</v>
       </c>
       <c r="C61">
@@ -2649,10 +2651,10 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="7">
         <v>2022</v>
       </c>
       <c r="C62">
@@ -2685,10 +2687,10 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="7">
         <v>2022</v>
       </c>
       <c r="C63">
@@ -2721,10 +2723,10 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="7">
         <v>2022</v>
       </c>
       <c r="C64">
@@ -2757,10 +2759,10 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="7">
         <v>2022</v>
       </c>
       <c r="C65">
@@ -2793,10 +2795,10 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="7">
         <v>2022</v>
       </c>
       <c r="C66">
@@ -2829,10 +2831,10 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="7">
         <v>2022</v>
       </c>
       <c r="C67">
@@ -2865,10 +2867,10 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="7">
         <v>2022</v>
       </c>
       <c r="C68">
@@ -2901,10 +2903,10 @@
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="7">
         <v>2021</v>
       </c>
       <c r="C69">
@@ -2937,10 +2939,10 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="7">
         <v>2021</v>
       </c>
       <c r="C70">
@@ -2973,10 +2975,10 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="7">
         <v>2021</v>
       </c>
       <c r="C71">
@@ -3009,10 +3011,10 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="7">
         <v>2021</v>
       </c>
       <c r="C72">
@@ -3045,10 +3047,10 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="7">
         <v>2021</v>
       </c>
       <c r="C73">
@@ -3081,10 +3083,10 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="7">
         <v>2021</v>
       </c>
       <c r="C74">
@@ -3117,10 +3119,10 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="7">
         <v>2021</v>
       </c>
       <c r="C75">
@@ -3153,10 +3155,10 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="7">
         <v>2021</v>
       </c>
       <c r="C76">
@@ -3189,10 +3191,10 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="7">
         <v>2021</v>
       </c>
       <c r="C77">
@@ -3225,10 +3227,10 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="7">
         <v>2021</v>
       </c>
       <c r="C78">
@@ -3261,10 +3263,10 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="7">
         <v>2021</v>
       </c>
       <c r="C79">
@@ -3297,10 +3299,10 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="7">
         <v>2021</v>
       </c>
       <c r="C80">
@@ -3333,10 +3335,10 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="7">
         <v>2021</v>
       </c>
       <c r="C81">
@@ -3369,10 +3371,10 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="7">
         <v>2021</v>
       </c>
       <c r="C82">
@@ -3405,10 +3407,10 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="7">
         <v>2021</v>
       </c>
       <c r="C83">
@@ -3441,10 +3443,10 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="7">
         <v>2021</v>
       </c>
       <c r="C84">
@@ -3477,10 +3479,10 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="7">
         <v>2021</v>
       </c>
       <c r="C85">
@@ -3513,10 +3515,10 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="7">
         <v>2021</v>
       </c>
       <c r="C86">
@@ -3549,10 +3551,10 @@
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="7">
         <v>2021</v>
       </c>
       <c r="C87">
@@ -3585,10 +3587,10 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="7">
         <v>2021</v>
       </c>
       <c r="C88">
@@ -3621,10 +3623,10 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="7">
         <v>2021</v>
       </c>
       <c r="C89">
@@ -3657,10 +3659,10 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="7">
         <v>2021</v>
       </c>
       <c r="C90">
@@ -3693,10 +3695,10 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="7">
         <v>2021</v>
       </c>
       <c r="C91">
@@ -3729,10 +3731,10 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="7">
         <v>2021</v>
       </c>
       <c r="C92">
@@ -3765,10 +3767,10 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="7">
         <v>2021</v>
       </c>
       <c r="C93">
@@ -3801,10 +3803,10 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="7">
         <v>2021</v>
       </c>
       <c r="C94">
@@ -3837,10 +3839,10 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="7">
         <v>2021</v>
       </c>
       <c r="C95">
@@ -3873,10 +3875,10 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="7">
         <v>2021</v>
       </c>
       <c r="C96">
@@ -3909,10 +3911,10 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="7">
         <v>2021</v>
       </c>
       <c r="C97">
@@ -3945,10 +3947,10 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="7">
         <v>2021</v>
       </c>
       <c r="C98">
@@ -3981,10 +3983,10 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="7">
         <v>2021</v>
       </c>
       <c r="C99">
@@ -4017,10 +4019,10 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="7">
         <v>2021</v>
       </c>
       <c r="C100">
@@ -4053,10 +4055,10 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="7">
         <v>2021</v>
       </c>
       <c r="C101">
@@ -4089,10 +4091,10 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="7">
         <v>2021</v>
       </c>
       <c r="C102">
@@ -4125,10 +4127,10 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="7">
         <v>2021</v>
       </c>
       <c r="C103">
@@ -4161,10 +4163,10 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="7">
         <v>2021</v>
       </c>
       <c r="C104">
@@ -4197,10 +4199,10 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="7">
         <v>2021</v>
       </c>
       <c r="C105">
@@ -4233,10 +4235,10 @@
       <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="7">
         <v>2021</v>
       </c>
       <c r="C106">
@@ -4269,10 +4271,10 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="7">
         <v>2021</v>
       </c>
       <c r="C107">
@@ -4305,10 +4307,10 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="7">
         <v>2021</v>
       </c>
       <c r="C108">
@@ -4341,10 +4343,10 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="7">
         <v>2021</v>
       </c>
       <c r="C109">
@@ -4377,10 +4379,10 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="7">
         <v>2021</v>
       </c>
       <c r="C110">
@@ -4413,10 +4415,10 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="7">
         <v>2021</v>
       </c>
       <c r="C111">
@@ -4449,10 +4451,10 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="7">
         <v>2021</v>
       </c>
       <c r="C112">
@@ -4485,10 +4487,10 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="7">
         <v>2021</v>
       </c>
       <c r="C113">
@@ -4521,10 +4523,10 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="7">
         <v>2021</v>
       </c>
       <c r="C114">
@@ -4557,10 +4559,10 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="7">
         <v>2021</v>
       </c>
       <c r="C115">
@@ -4593,10 +4595,10 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="7">
         <v>2021</v>
       </c>
       <c r="C116">
@@ -4629,10 +4631,10 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="7">
         <v>2021</v>
       </c>
       <c r="C117">
@@ -4665,10 +4667,10 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="7">
         <v>2021</v>
       </c>
       <c r="C118">
@@ -4701,10 +4703,10 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="7">
         <v>2021</v>
       </c>
       <c r="C119">
@@ -4737,10 +4739,10 @@
       <c r="M119" s="3"/>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="7">
         <v>2021</v>
       </c>
       <c r="C120">
@@ -4773,10 +4775,10 @@
       <c r="M120" s="3"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="7">
         <v>2022</v>
       </c>
       <c r="C121">
@@ -4808,10 +4810,10 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="7">
         <v>2022</v>
       </c>
       <c r="C122">
@@ -4843,10 +4845,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="7">
         <v>2022</v>
       </c>
       <c r="C123">
@@ -4878,10 +4880,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="7">
         <v>2022</v>
       </c>
       <c r="C124">
@@ -4913,10 +4915,10 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="7">
         <v>2022</v>
       </c>
       <c r="C125">
@@ -4948,10 +4950,10 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="7">
         <v>2022</v>
       </c>
       <c r="C126">
@@ -4983,10 +4985,10 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="7">
         <v>2022</v>
       </c>
       <c r="C127">
@@ -5018,10 +5020,10 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="7">
         <v>2022</v>
       </c>
       <c r="C128">
@@ -5053,10 +5055,10 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="7">
         <v>2022</v>
       </c>
       <c r="C129">
@@ -5088,10 +5090,10 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="7">
         <v>2022</v>
       </c>
       <c r="C130">
@@ -5123,10 +5125,10 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="7">
         <v>2022</v>
       </c>
       <c r="C131">
@@ -5158,10 +5160,10 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="6">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="7">
         <v>2022</v>
       </c>
       <c r="C132">
@@ -5193,10 +5195,10 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="7">
         <v>2022</v>
       </c>
       <c r="C133">
@@ -5228,10 +5230,10 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="7">
         <v>2022</v>
       </c>
       <c r="C134">
@@ -5263,10 +5265,10 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="7">
         <v>2022</v>
       </c>
       <c r="C135">
